--- a/data/trans_dic/P14_3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P14_3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,77%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,55</t>
+          <t>2,88; 9,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,59</t>
+          <t>3,4; 9,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,44</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,08</t>
+          <t>3,85; 8,44</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,66</t>
+          <t>2,19; 6,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,9</t>
+          <t>5,57; 10,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,01</t>
+          <t>0,69; 3,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,55</t>
+          <t>3,78; 7,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,28</t>
+          <t>1,64; 4,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,02</t>
+          <t>5,18; 8,44</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,68</t>
+          <t>2,8; 7,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 14,54</t>
+          <t>6,85; 12,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 8,3</t>
+          <t>4,4; 9,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,33</t>
+          <t>9,73; 16,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,25</t>
+          <t>4,08; 7,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,58</t>
+          <t>9,07; 13,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,8</t>
+          <t>0,8; 2,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 9,32</t>
+          <t>4,24; 10,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,68</t>
+          <t>2,09; 5,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,83</t>
+          <t>3,5; 8,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,87</t>
+          <t>1,65; 3,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 8,66</t>
+          <t>4,62; 8,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 3,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 9,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 4,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 8,91</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 3,69</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 8,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en vena) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28705</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38530</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67235</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13507</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15256; 50928</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21566; 59303</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14672</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>44868; 98270</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35065</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>93434</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16848</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68974</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>51913</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>162409</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20383; 57225</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>67117; 130629</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6886; 34293</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46573; 95849</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31642; 78538</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>126137; 205536</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33638</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79530</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>49382</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>116477</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83020</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>196008</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20033; 56847</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>57801; 107611</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33846; 73299</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>91396; 150675</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>60583; 111410</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>161764; 239522</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24819</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57701</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>46872</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>43753</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>71691</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>101454</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11587; 43484</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36266; 89970</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29374; 71820</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26420; 65407</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47111; 101281</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>74363; 143702</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>97626</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>259370</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>113101</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>267734</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>210727</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>527104</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>71221; 132787</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>214719; 318471</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>84732; 150262</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>231250; 317109</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>167444; 259527</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>462960; 603551</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>